--- a/branches/r5-r4b/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/branches/r5-r4b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T12:45:51+00:00</t>
+    <t>2022-11-11T12:48:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/r5-r4b/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/branches/r5-r4b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T12:48:43+00:00</t>
+    <t>2022-11-11T13:10:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/r5-r4b/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/branches/r5-r4b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T13:10:08+00:00</t>
+    <t>2022-11-12T19:50:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/r5-r4b/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/branches/r5-r4b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-12T19:50:48+00:00</t>
+    <t>2022-11-12T20:00:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/r5-r4b/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/branches/r5-r4b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-12T20:00:33+00:00</t>
+    <t>2022-11-16T21:11:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/r5-r4b/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/branches/r5-r4b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T21:11:51+00:00</t>
+    <t>2022-11-16T21:23:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/r5-r4b/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/branches/r5-r4b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T21:23:11+00:00</t>
+    <t>2022-11-17T06:36:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/r5-r4b/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/branches/r5-r4b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T06:36:33+00:00</t>
+    <t>2022-11-18T19:44:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/r5-r4b/StructureDefinition-PPLPackagedProductDefinition.xlsx
+++ b/branches/r5-r4b/StructureDefinition-PPLPackagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:44:59+00:00</t>
+    <t>2022-11-18T19:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
